--- a/OpsAndMats/Safety Whl Ass'y_8026015-X.xlsx
+++ b/OpsAndMats/Safety Whl Ass'y_8026015-X.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclark.LABTESTING\Documents\ERP Notes\Phase2_BOM\OpsAndMats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667299FC-E20B-4E09-99F7-B1081C0C704A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Operations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -485,8 +491,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +555,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -595,7 +609,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,9 +641,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,6 +693,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -836,14 +886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +1024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1057,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1140,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1223,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1306,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1389,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1472,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1555,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1638,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1721,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1804,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1887,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1970,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2053,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2136,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2219,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2302,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2385,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2468,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2551,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2634,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2717,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2800,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2883,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2966,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3055,14 +3105,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3211,7 +3261,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3321,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3431,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3541,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3651,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -3761,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -3871,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -3981,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -4091,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -4201,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -4311,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -4421,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -4531,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -4641,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -4751,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -4861,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -4971,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -5081,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -5191,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -5301,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -5411,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -5521,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5631,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -5741,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -5851,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -5961,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -6071,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
